--- a/biology/Médecine/Jean-Paul-Henry_Coutagne/Jean-Paul-Henry_Coutagne.xlsx
+++ b/biology/Médecine/Jean-Paul-Henry_Coutagne/Jean-Paul-Henry_Coutagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Paul Jean Coutagne, né le 4 juillet 1846 à Lyon[1], ville où il est mort dans le 2e arrondissement le 15 novembre 1895[2], est un médecin et criminologue français[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Paul Jean Coutagne, né le 4 juillet 1846 à Lyon, ville où il est mort dans le 2e arrondissement le 15 novembre 1895, est un médecin et criminologue français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Coutagne est originaire de Vienne en Isère, où l’aïeul, François Coutagne (1750-1815), est marchand, mais plusieurs de ses membres vivent à Lyon au XIXe siècle[3]. Henri Coutagne a un frère cadet, Georges (1854-1928), et un neveu Aimé (1882-1970)[3].
-Il fait ses études médicales à Lyon, interne des hôpitaux en 1866, à Montpellier, Strasbourg et Paris, thèse en 1871[3]. Médecin des hôpitaux de Lyon en 1874, il s’oriente vers la médecine légale et la criminologie, chef de travaux de médecine légale à la faculté de médecine de Lyon, expert auprès des tribunaux[3].
-Henry Coutagne meurt célibataire le 15 novembre 1895. Il est inhumé au cimetière de Loyasse à Lyon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Coutagne est originaire de Vienne en Isère, où l’aïeul, François Coutagne (1750-1815), est marchand, mais plusieurs de ses membres vivent à Lyon au XIXe siècle. Henri Coutagne a un frère cadet, Georges (1854-1928), et un neveu Aimé (1882-1970).
+Il fait ses études médicales à Lyon, interne des hôpitaux en 1866, à Montpellier, Strasbourg et Paris, thèse en 1871. Médecin des hôpitaux de Lyon en 1874, il s’oriente vers la médecine légale et la criminologie, chef de travaux de médecine légale à la faculté de médecine de Lyon, expert auprès des tribunaux.
+Henry Coutagne meurt célibataire le 15 novembre 1895. Il est inhumé au cimetière de Loyasse à Lyon.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Henry Coutagne publie plus de 37 études de 1870 à 1896, dont à titre d’exemples[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Henry Coutagne publie plus de 37 études de 1870 à 1896, dont à titre d’exemples :
 De l'herpès généralisé fébrile, [thèse], 1871.
 Notes sur la sodomie, H. Georg, 1880.
 Étude sur un cas de suicide par coups de revolver affaire G... de Crest, Association typographique, 1884.
